--- a/AWS集合研修_Webサーバ構築+負荷分散.xlsx
+++ b/AWS集合研修_Webサーバ構築+負荷分散.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0aa14bbcb8bb57b9/デスクトップ/20230316_研修資料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hosoda-r\Desktop\研修資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{1379E799-9CA3-4411-9C6B-5712D4E1A00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B803047-4701-48E7-B7DE-AE81AF0BD035}"/>
   <bookViews>
-    <workbookView xWindow="-38200" yWindow="-3740" windowWidth="17840" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="285">
   <si>
     <t>【AWS就業研修】Webサーバ構築＋負荷分散</t>
   </si>
@@ -91,51 +90,6 @@
     <t>2.ネットワーク環境構築</t>
   </si>
   <si>
-    <t xml:space="preserve">インターネットゲートウェイ作成、VPCに紐付け </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルートテーブルの設定 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">アウトバウンドに0.0.0.0/0-&gt;IGWを追加 </t>
-  </si>
-  <si>
-    <t>３.仮想サーバ作成</t>
-  </si>
-  <si>
-    <t>３-1.AWS EC2(インスタンス)起動</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># EC2の起動 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC2-aの作成 </t>
-  </si>
-  <si>
-    <t>３-2.名前とタグの追加</t>
-  </si>
-  <si>
-    <t>３-3.アプリケーションおよびOSイメージ(AMI)の指定</t>
-  </si>
-  <si>
-    <t>３-4.キーペア(ログイン用の鍵)作成</t>
-  </si>
-  <si>
-    <t>３-5.ネットワーク設定</t>
-  </si>
-  <si>
-    <t>３-5-1.VPC、サブネット設定</t>
-  </si>
-  <si>
-    <t>３-5-2.パブリックIP無効設定</t>
-  </si>
-  <si>
-    <t>３-5-3.セキュリティグループの作成(http,httpsを許可)</t>
-  </si>
-  <si>
-    <t>３-5-4.ElasticIPを作成・関連付け</t>
-  </si>
-  <si>
     <t>4.Webサーバ構築</t>
   </si>
   <si>
@@ -146,9 +100,6 @@
   </si>
   <si>
     <t>4-1-2.Amazon EC2にSSHで接続</t>
-  </si>
-  <si>
-    <t>4-2.Webサーバ(Nginx)をインストール</t>
   </si>
   <si>
     <t>4-3.Nginxを起動</t>
@@ -396,16 +347,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>※フルネームをローマ字で入力</t>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>※[新しいタグを追加]をクリックして以下を追加</t>
     <rPh sb="2" eb="3">
       <t>アタラ</t>
@@ -569,13 +510,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>2-4.ルートテーブルの設定</t>
-    <rPh sb="12" eb="14">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>ここではインターネットゲートウェイを作成し、VPCと紐付けることにより、インターネットを使う準備ができます。</t>
     <rPh sb="18" eb="20">
       <t>サクセイ</t>
@@ -599,22 +533,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>3.[ルートテーブル]画面で、以下を設定し、[インターネットゲートウェイの作成]をクリック</t>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>Amazon VPCとは、Amazon Virtual Private Cloudの略です。Amazon VPCにより仮想ネットワークを構築し、</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -696,104 +614,6 @@
   </si>
   <si>
     <t>10.0.0.0/16</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>igw-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;※名前をローマ字で入力&gt;</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>public-subnet-1c-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;※名前をローマ字で入力&gt;</t>
-    </r>
-    <rPh sb="19" eb="21">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>vpc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>-&lt;名前ローマ字&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> ※2-1で作成したVPCを選択</t>
-    </r>
-    <rPh sb="18" eb="20">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>vpc-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;※名前をローマ字で入力&gt;</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -954,16 +774,1802 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>3-1.Amazon EC2作成</t>
+    <t>3.[ルートテーブル]画面で、以下を設定し、[ルートテーブルを作成]をクリック</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>名前 - オプション</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>例：rtb-giken</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>キー</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>値 - オプション</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>VPC</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>例：vpc-xxxxxxxxxxxxxxxxx(vpc-giken)</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.作成したルートテーブル[rtb-xxxxxxxxxxxxxxxxx]の画面下の[ルート]タブをクリックして、[ルートを編集]をクリック</t>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.[ルートを編集]画面で[ルートを追加]をクリック</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>3.追加表示された[ルートを編集]で、以下を設定し、[変更を保存]をクリック</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
     <rPh sb="14" eb="16">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>送信先</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシンサキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>0.0.0.0/0</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ターゲット</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ターゲットを選択する際に、選択が２段階になっているので、まず[インターネットゲートウェイ]を選択し、</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>次に[igw-]と入力すると、作成したインターネットゲートウェイが表示されます。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>3.Amazon EC2でWebサーバの構築</t>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2-4.ルートテーブル作成</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2-4-1.ルートテーブルの設定</t>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2-4-2.ルートテーブルを編集</t>
+    <rPh sb="14" eb="16">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2-4-3.サブネットの関連付けを編集</t>
+    <rPh sb="12" eb="15">
+      <t>カンレンヅ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.[サブネット]タブをクリックして、[サブネットの関連付けを編集]をクリック</t>
+    <rPh sb="26" eb="29">
+      <t>カンレンヅ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.[サブネットの関連付けを編集]画面で、2-3で作成した２つのサブネットにチェックを入れ、[関連付けを保存]をクリック</t>
+    <rPh sb="9" eb="12">
+      <t>カンレンヅ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>カンレンヅ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>３.Amazon EC2(仮想サーバ)作成</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ここでは２つのEC2(Amazon Elastic Compute Cloud)を作成します。</t>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>EC2とはAmazon Cloud上に作成可能なコンピュータであり、OSやスペック、台数などを容易に準備することができます。</t>
+    <rPh sb="17" eb="18">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ダイスウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>必要な時に起動したり、停止することが可能で停止中は料金が発生しないというメリットがあります。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>テイシチュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.[AWSコンソール]画面上部の検索窓で[EC2]と入力し、検索結果の[EC2]をクリック</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.[AWS EC2]画面の[インスタンスを起動]枠の[インスタンスを起動]をクリック</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>例:EC2-Nginx-a-giken</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.[VPCを作成]画面で以下を設定</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.[クリックスタート]タブをクリックし、[Amazon Linux]をクリック</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>名前とタグ</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>※[タグを追加]をクリックして以下を追加</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>キーペアとは、EC2インスタンスにアクセスするために必要となる「鍵」のことで、「公開鍵」と「秘密鍵」になります。</t>
+    <rPh sb="32" eb="33">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.キーペア（ログイン）の「新しいキーペアの作成」をクリック</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.[キーペアを作成]画面で以下を設定し、[キーペアを作成]をクリック</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>キーペア名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>プライベートキーファイル形式</t>
+    <rPh sb="12" eb="14">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>.pem</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>.ppk</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>キー</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>例:EC2-kpr-giken</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>3.ダウンロード用のダイアログが表示されたら、</t>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>キーペアを作成し、ローカルの端末の[c:\work]などのフォルダを作成し、[公開鍵]をダウンロードします。</t>
+    <rPh sb="34" eb="36">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>コウカイカギ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>[c:\work]フォルダに保存する。</t>
+    <rPh sb="14" eb="16">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>※事前にCドライブの直下に[work]フォルダを作成する。</t>
+    <rPh sb="1" eb="3">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>4.ダウンロード後に元の画面に遷移するので、キーペア名の欄に作成したキーペアが設定されていることを確認</t>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.[ネットワーク設定]枠の右側にある[編集]をクリック</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ミギガワ</t>
+    </rPh>
     <rPh sb="20" eb="22">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>例:vpc-xxxxxxxxxxxxxxxxx(vpc-giken)</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.[VPC]の選択欄で2-1で作成したVPCを選択</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>3.[サブネット]の選択欄で2-2で作成したアベイラビリティーゾーン[ap-northeast-1a]のサブネットを選択</t>
+    <rPh sb="10" eb="13">
+      <t>センタクラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>例:subnet-xxxxxxxxxxxxxxxxx(public-subnet-1a-giken)</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>セキュリティグループ名</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>例:for-EC2-giken</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>インバウンドセキュリティグループのルール</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>※ここでは３つのルール(ssh/http/https)を作成していきます。</t>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>プロトコル</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ポート範囲</t>
+    <rPh sb="3" eb="5">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ソースタイプ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ソース</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ssh</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>任意の場所</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>from home</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>セキュリティグループルール２</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>セキュリティグループルール3</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>セキュリティグループルール１</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>from Internet</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>443</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.[ファイアウォール(セキュリティグループ)]枠で以下の設定をする</t>
+    <rPh sb="24" eb="25">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.[パブリックIPの自動割り当て]で[有効化]を選択</t>
+    <rPh sb="11" eb="13">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ユウコウカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.[インスタンスタイプ]の選択欄で[t2.micro]を選択</t>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.[ストレージを設定]枠で以下を設定</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1x 8 GiB</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>gp2 ルートボリューム</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.[概要]枠のインスタンス数が[1]であることを確認</t>
+    <rPh sb="3" eb="5">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.[インスタンスを起動]をクリック</t>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ここでは作成するEC2インスタンスが利用するネットワークの設定を行います。</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>３a-1.AWS EC2(インスタンス)起動</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>３a-2.名前とタグの追加</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>３a-3.アプリケーションおよびOSイメージ(AMI)の指定(a)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>３a-4.インスタンスタイプの指定(a)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>３a-5.キーペア(ログイン用の鍵)作成</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>３a-6.ネットワーク設定</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>３a-6-1.VPC、サブネット設定</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>３a-6-2.パブリックIP無効設定</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>３a-6-3.セキュリティグループの作成(http,httpsを許可)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>３a-6-5.ストレージを設定</t>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>３a-6-4.インスタンスを起動</t>
+    <rPh sb="14" eb="16">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1台目のEC2の手順項番は3a~、２台目のEC2の手順項番は3b~とします。</t>
+    <rPh sb="1" eb="3">
+      <t>ダイメ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ダイメ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>3b-2.名前とタグの追加</t>
+  </si>
+  <si>
+    <t>3b-3.アプリケーションおよびOSイメージ(AMI)の指定(a)</t>
+  </si>
+  <si>
+    <t>3b-4.インスタンスタイプの指定(a)</t>
+  </si>
+  <si>
+    <t>3b-6.ネットワーク設定</t>
+  </si>
+  <si>
+    <t>3b-6-2.パブリックIP無効設定</t>
+  </si>
+  <si>
+    <t>3b-6-5.ストレージを設定</t>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>3b-6-4.インスタンスを起動</t>
+    <rPh sb="14" eb="16">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>３b-1.AWS EC2(インスタンス)起動</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>例:EC2-Nginx-b-giken</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>１台目で作成したキーペアを利用します。</t>
+    <rPh sb="1" eb="3">
+      <t>ダイメ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>3b-5.キーペア(ログイン用の鍵)の選択</t>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.キーペア（ログイン）の「新しいキーペア名」欄で3a-5で作成したキーペアを選択</t>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>１台目で作成したセキュリティグループを利用します。</t>
+    <rPh sb="1" eb="3">
+      <t>ダイメ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>●セキュリティグループを作成する</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>〇既存のセキュリティグループを選択する</t>
+    <rPh sb="1" eb="3">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>●既存のセキュリティグループを選択する</t>
+    <rPh sb="1" eb="3">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>○セキュリティグループを作成する</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>共通のセキュリティグループ</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>3-7.作成されたEC2の確認</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>3b-6-3.セキュリティグループを選定</t>
+    <rPh sb="18" eb="20">
+      <t>センテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>3b-6-1.VPC、サブネットを設定</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ローカル端末からAmazon EC2に接続するための設定をしていきます。</t>
+    <rPh sb="4" eb="6">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>EC2作成時にダウンロードしたキーペアのアクセス権を変更していきます。</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイジ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>dir</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>cd c:\work</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>icacls.exe $path /reset</t>
+  </si>
+  <si>
+    <t>icacls.exe $path /GRANT:R "$($env:USERNAME):(R)"</t>
+  </si>
+  <si>
+    <t>icacls.exe $path /inheritance:r</t>
+  </si>
+  <si>
+    <t>ネットワークとサーバの準備が整いましたので、ローカル端末からAmazon EC2に接続してWebサーバを構築していきます。</t>
+    <rPh sb="11" eb="13">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トトノ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
       <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>SSHクライアントでEC2サーバに接続します。</t>
+    <rPh sb="17" eb="19">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.コマンドプロンプトを起動し、以下のコマンドを実行</t>
+    <rPh sb="12" eb="14">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.Powershellを起動し、以下のコマンドを実行</t>
+    <rPh sb="13" eb="15">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>$path = "./EC2-kpr-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;※ローマ字表記の名前&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.pem</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>for-EC2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;※ローマ字表記の名前&gt;</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>※ローマ字表記でフルネームを入力</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>igw-xxxxxxxxxxxxxxxxx(igw-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;※ローマ字表記の名前&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※2-3で作成したインターネットゲートウェイを選択</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>vpc-xxxxxxxxxxxxxxxxx(vpc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-&lt;※ローマ字表記の名前&gt;)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※2-1で作成したVPCを選択</t>
+    </r>
+    <rPh sb="45" eb="47">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>igw-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;※ローマ字表記で名前を入力&gt;</t>
+    </r>
+    <rPh sb="9" eb="12">
+      <t>ジヒョウキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>※ローマ字表記でフルネームを入力</t>
+    <rPh sb="4" eb="7">
+      <t>ジヒョウキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>public-subnet-1c-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;※ローマ字表記で名前を入力&gt;</t>
+    </r>
+    <rPh sb="22" eb="23">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>vpc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-&lt;ローマ字表記の名前&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※2-1で作成したVPCを選択</t>
+    </r>
+    <rPh sb="8" eb="11">
+      <t>ジヒョウキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>vpc-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;※ローマ字表記で名前を入力&gt;</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>rtb-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;※ローマ字表記で名前を入力&gt;</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>EC2-Nginx-a-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;※ローマ字表記で名前を入力&gt;</t>
+    </r>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>EC2-kpr-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;※ローマ字表記で名前を入力&gt;</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>for-EC2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;※ローマ字表記で名前を入力&gt;</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>EC2-Nginx-b-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;※ローマ字表記ので名前を入力&gt;</t>
+    </r>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>※EC2のグルーバルIPアドレスはAWSコンソールのEC2のインスタンスの一覧を表示後、確認したいインスタンスIDを</t>
+    <rPh sb="37" eb="39">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>　クリックすることにより、パブリックIPv4アドレスを確認することができます。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.以下のメッセージが表示されたら、[yes]と入力し[Enter]キーを押下</t>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>SSHクライアントがインストールされていない場合は、sshコマンドがエラーになりますので、[Windows]の[設定]の</t>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>[オプション機能]から以下の２つのオプションを追加する必要があります。</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>・OpenSSHクライアント</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>・OpenSSHサーバー</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.以下のコマンドを実行し、インストール可能なパッケージを検索</t>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>which amazon-linux-extras</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>ssh -i "EC2-kpr-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;※ローマ字表記の名前&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.pem" ec2-user@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パブリックIPアドレス</t>
+    </r>
+    <rPh sb="21" eb="22">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>例：ssh -i "EC2-kpr-giken.pem" ec2-user@xxx.xxx.xxx.xxx</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>amazon-linux-extras</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>sudo amazon-linux-extras install nginx1</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>4-2.Webサーバ(Nginx)をインストール</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>nginx -v</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>4.以下のコマンドを実行し、Nginxの初期設定ファイルをバックアップ</t>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ショキセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>3.以下のコマンドを実行し、インストールされたNginxのバージョンを確認</t>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.以下のコマンドを実行し、nginxのパッケージをインストール</t>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>sudo cp -a /etc/nginx/nginx.conf /etc/nginx/nginx.conf.back</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.以下のコマンドを実行し、Nginxを起動</t>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>sudo systemctl start nginx</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.以下のコマンドを実行し、EC2インスタンスが起動したタイミングでNginxも起動する設定をする</t>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>sudo systemctl enable nginx</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>3.以下のコマンドを実行し、正しく設定されていることを確認</t>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>systemctl status nginx</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1.ローカル端末のブラウザにEC2のパブリックIPを入力</t>
+    <rPh sb="6" eb="8">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>何か打ち込む予定</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Nginxのコンテンツファイルを変更して、表示されるページ内容を変更します。</t>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -971,8 +2577,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1038,6 +2644,41 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="4"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1053,7 +2694,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1070,11 +2711,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1087,6 +2737,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1465,11 +3126,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I351"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I181" sqref="I181"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A475" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I486" sqref="I486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1492,7 +3153,7 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="21.6" x14ac:dyDescent="0.6">
       <c r="A3" s="8" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1503,32 +3164,28 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="21.6" x14ac:dyDescent="0.6">
       <c r="A10" s="8" t="s">
@@ -1675,27 +3332,27 @@
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B58" s="3" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B59" s="3" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C61" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C62" s="3" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C63" s="3" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
@@ -1713,7 +3370,7 @@
     </row>
     <row r="67" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="A67" s="8" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -1726,174 +3383,174 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B74" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B75" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B76" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C78" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D79" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E80" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D81" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E82" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E83" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>122</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="4:8" x14ac:dyDescent="0.45">
       <c r="H84" s="7" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D85" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E86" s="3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E87" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D88" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E89" s="3" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D90" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E91" s="3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E92" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E93" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E94" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D95" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E96" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C97" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D98" s="3" t="s">
-        <v>84</v>
+      <c r="D98" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D99" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D100" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>83</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D101" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="A103" s="8" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -1906,194 +3563,194 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B110" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B111" s="3" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B112" s="3" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C114" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D115" s="3" t="s">
-        <v>121</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C117" s="3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D118" s="3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E119" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E120" s="7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D121" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E122" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D123" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E124" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D125" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="E126" s="3" t="s">
-        <v>84</v>
+      <c r="E126" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E127" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E128" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E129" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C131" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D133" s="3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E134" s="3" t="s">
-        <v>120</v>
+        <v>249</v>
       </c>
     </row>
     <row r="135" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E135" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D136" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E137" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="138" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D138" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E139" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D140" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="E141" s="3" t="s">
-        <v>84</v>
+      <c r="E141" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E142" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E143" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
     </row>
     <row r="144" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E144" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="A146" s="8" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -2106,108 +3763,108 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B153" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B154" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B155" s="3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C157" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D158" s="3" t="s">
-        <v>119</v>
+        <v>247</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D159" s="7" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C160" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D161" s="3" t="s">
-        <v>84</v>
+      <c r="D161" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D162" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D163" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>83</v>
+        <v>53</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D164" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B166" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B167" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B168" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B169" s="3" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="A171" s="8" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -2218,123 +3875,210 @@
       <c r="H171" s="10"/>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A172" s="3" t="s">
+    <row r="173" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A173" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10"/>
+      <c r="I173" s="10"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A174" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A175" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B177" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B178" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B179" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C180" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D181" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D182" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A173" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B175" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B176" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B177" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A196" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B196" s="10"/>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
-      <c r="H196" s="10"/>
-      <c r="I196" s="10"/>
-    </row>
-    <row r="198" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A198" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B198" s="10"/>
-      <c r="C198" s="10"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
-      <c r="H198" s="10"/>
-      <c r="I198" s="10"/>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C183" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D183" s="7"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D184" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D185" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C186" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D187" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D188" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D189" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I189" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D190" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A192" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A193" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A194" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B196" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B197" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B198" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A199" s="3" t="s">
-        <v>114</v>
+      <c r="C199" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A200" s="3" t="s">
-        <v>113</v>
+      <c r="D200" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C201" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B202" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B203" s="3" t="s">
-        <v>134</v>
+      <c r="D202" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B204" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A206" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B206" s="10"/>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
-      <c r="H206" s="10"/>
-      <c r="I206" s="10"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A207" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="D204" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D205" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A207" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18"/>
+      <c r="E207" s="18"/>
+      <c r="F207" s="18"/>
+      <c r="G207" s="18"/>
+      <c r="H207" s="18"/>
+      <c r="I207" s="18"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A208" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B210" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A209" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B211" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B212" s="3" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="A214" s="8" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -2347,103 +4091,248 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A215" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A216" s="3" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B218" s="3" t="s">
-        <v>102</v>
+      <c r="A218" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B219" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B220" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B231" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B232" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B233" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B234" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A252" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A254" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A256" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A258" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B258" s="10"/>
-      <c r="C258" s="10"/>
-      <c r="D258" s="10"/>
-      <c r="E258" s="10"/>
-      <c r="F258" s="10"/>
-      <c r="G258" s="10"/>
-      <c r="H258" s="10"/>
-      <c r="I258" s="10"/>
-    </row>
-    <row r="262" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A262" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B262" s="10"/>
-      <c r="C262" s="10"/>
-      <c r="D262" s="10"/>
-      <c r="E262" s="10"/>
-      <c r="F262" s="10"/>
-      <c r="G262" s="10"/>
-      <c r="H262" s="10"/>
-      <c r="I262" s="10"/>
+      <c r="A219" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A221" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B223" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B224" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A226" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B227" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C229" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D230" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D231" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G232" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G233" s="7"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D234" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D235" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D236" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G236" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D237" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A239" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="10"/>
+      <c r="G239" s="10"/>
+      <c r="H239" s="10"/>
+      <c r="I239" s="10"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B241" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A243" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B243" s="10"/>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="10"/>
+      <c r="G243" s="10"/>
+      <c r="H243" s="10"/>
+      <c r="I243" s="10"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B245" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A247" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B247" s="10"/>
+      <c r="C247" s="10"/>
+      <c r="D247" s="10"/>
+      <c r="E247" s="10"/>
+      <c r="F247" s="10"/>
+      <c r="G247" s="10"/>
+      <c r="H247" s="10"/>
+      <c r="I247" s="10"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A248" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A249" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B251" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B252" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C254" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D255" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D256" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C258" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D259" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D260" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B262" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C263" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A264" s="3" t="s">
-        <v>28</v>
+      <c r="C264" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A266" s="3" t="s">
-        <v>29</v>
+      <c r="B266" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="A268" s="8" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
@@ -2454,418 +4343,1929 @@
       <c r="H268" s="10"/>
       <c r="I268" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A272" s="8" t="s">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A269" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A271" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B271" s="10"/>
+      <c r="C271" s="10"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
+      <c r="G271" s="10"/>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A272" s="20"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A273" s="19"/>
+      <c r="B273" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="14"/>
+      <c r="F273" s="14"/>
+      <c r="G273" s="14"/>
+      <c r="H273" s="14"/>
+      <c r="I273" s="14"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A274" s="19"/>
+      <c r="B274" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C274" s="14"/>
+      <c r="D274" s="14"/>
+      <c r="E274" s="14"/>
+      <c r="F274" s="14"/>
+      <c r="G274" s="14"/>
+      <c r="H274" s="14"/>
+      <c r="I274" s="14"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A275" s="19"/>
+      <c r="B275" s="14"/>
+      <c r="C275" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D275" s="14"/>
+      <c r="E275" s="14"/>
+      <c r="F275" s="14"/>
+      <c r="G275" s="14"/>
+      <c r="H275" s="14"/>
+      <c r="I275" s="14"/>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A276" s="19"/>
+      <c r="B276" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C276" s="7"/>
+      <c r="D276" s="14"/>
+      <c r="E276" s="14"/>
+      <c r="F276" s="14"/>
+      <c r="G276" s="14"/>
+      <c r="H276" s="14"/>
+      <c r="I276" s="14"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A277" s="19"/>
+      <c r="B277" s="14"/>
+      <c r="C277" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D277" s="14"/>
+      <c r="E277" s="14"/>
+      <c r="F277" s="14"/>
+      <c r="G277" s="14"/>
+      <c r="H277" s="14"/>
+      <c r="I277" s="14"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A278" s="20"/>
+    </row>
+    <row r="279" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A279" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B279" s="10"/>
+      <c r="C279" s="10"/>
+      <c r="D279" s="10"/>
+      <c r="E279" s="10"/>
+      <c r="F279" s="10"/>
+      <c r="G279" s="10"/>
+      <c r="H279" s="10"/>
+      <c r="I279" s="10"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A280" s="20"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A281" s="20"/>
+      <c r="B281" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A282" s="20"/>
+    </row>
+    <row r="283" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A283" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B283" s="10"/>
+      <c r="C283" s="10"/>
+      <c r="D283" s="10"/>
+      <c r="E283" s="10"/>
+      <c r="F283" s="10"/>
+      <c r="G283" s="10"/>
+      <c r="H283" s="10"/>
+      <c r="I283" s="10"/>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A284" s="20"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A285" s="19"/>
+      <c r="B285" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C285" s="7"/>
+      <c r="D285" s="14"/>
+      <c r="E285" s="14"/>
+      <c r="F285" s="14"/>
+      <c r="G285" s="14"/>
+      <c r="H285" s="14"/>
+      <c r="I285" s="14"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A286" s="19"/>
+      <c r="B286" s="14"/>
+      <c r="C286" s="7"/>
+      <c r="D286" s="14"/>
+      <c r="E286" s="14"/>
+      <c r="F286" s="14"/>
+      <c r="G286" s="14"/>
+      <c r="H286" s="14"/>
+      <c r="I286" s="14"/>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A287" s="19"/>
+      <c r="B287" s="14"/>
+      <c r="C287" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D287" s="14"/>
+      <c r="E287" s="14"/>
+      <c r="F287" s="14"/>
+      <c r="G287" s="14"/>
+      <c r="H287" s="14"/>
+      <c r="I287" s="14"/>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A288" s="19"/>
+      <c r="B288" s="14"/>
+      <c r="C288" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D288" s="14"/>
+      <c r="E288" s="14"/>
+      <c r="F288" s="14"/>
+      <c r="G288" s="14"/>
+      <c r="H288" s="14"/>
+      <c r="I288" s="14"/>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A289" s="19"/>
+      <c r="B289" s="14"/>
+      <c r="C289" s="7"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="14"/>
+      <c r="F289" s="14"/>
+      <c r="G289" s="14"/>
+      <c r="H289" s="14"/>
+      <c r="I289" s="14"/>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A290" s="19"/>
+      <c r="B290" s="14"/>
+      <c r="C290" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D290" s="14"/>
+      <c r="E290" s="14"/>
+      <c r="F290" s="14"/>
+      <c r="G290" s="14"/>
+      <c r="H290" s="14"/>
+      <c r="I290" s="14"/>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A291" s="19"/>
+      <c r="B291" s="14"/>
+      <c r="C291" s="7"/>
+      <c r="D291" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E291" s="14"/>
+      <c r="F291" s="14"/>
+      <c r="G291" s="14"/>
+      <c r="H291" s="14"/>
+      <c r="I291" s="14"/>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A292" s="19"/>
+      <c r="B292" s="14"/>
+      <c r="C292" s="7"/>
+      <c r="D292" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E292" s="14"/>
+      <c r="F292" s="14"/>
+      <c r="G292" s="14"/>
+      <c r="H292" s="14"/>
+      <c r="I292" s="14"/>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A293" s="19"/>
+      <c r="B293" s="14"/>
+      <c r="C293" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D293" s="14"/>
+      <c r="E293" s="14"/>
+      <c r="F293" s="14"/>
+      <c r="G293" s="14"/>
+      <c r="H293" s="14"/>
+      <c r="I293" s="14"/>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A294" s="19"/>
+      <c r="B294" s="14"/>
+      <c r="C294" s="7"/>
+      <c r="D294" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E294" s="14"/>
+      <c r="F294" s="14"/>
+      <c r="G294" s="14"/>
+      <c r="H294" s="14"/>
+      <c r="I294" s="14"/>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A295" s="19"/>
+      <c r="B295" s="14"/>
+      <c r="C295" s="14"/>
+      <c r="D295" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E295" s="14"/>
+      <c r="F295" s="14"/>
+      <c r="G295" s="14"/>
+      <c r="H295" s="14"/>
+      <c r="I295" s="14"/>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A296" s="19"/>
+      <c r="B296" s="14"/>
+      <c r="C296" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D296" s="14"/>
+      <c r="E296" s="14"/>
+      <c r="F296" s="14"/>
+      <c r="G296" s="14"/>
+      <c r="H296" s="14"/>
+      <c r="I296" s="14"/>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A297" s="19"/>
+      <c r="B297" s="14"/>
+      <c r="C297" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D297" s="14"/>
+      <c r="E297" s="14"/>
+      <c r="F297" s="14"/>
+      <c r="G297" s="14"/>
+      <c r="H297" s="14"/>
+      <c r="I297" s="14"/>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A298" s="19"/>
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
+      <c r="D298" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E298" s="14"/>
+      <c r="F298" s="14"/>
+      <c r="G298" s="14"/>
+      <c r="H298" s="14"/>
+      <c r="I298" s="14"/>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A299" s="19"/>
+      <c r="B299" s="14"/>
+      <c r="C299" s="14"/>
+      <c r="D299" s="14"/>
+      <c r="E299" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F299" s="14"/>
+      <c r="G299" s="14"/>
+      <c r="H299" s="14"/>
+      <c r="I299" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A300" s="19"/>
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
+      <c r="D300" s="14"/>
+      <c r="E300" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F300" s="14"/>
+      <c r="G300" s="14"/>
+      <c r="H300" s="14"/>
+      <c r="I300" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A301" s="19"/>
+      <c r="B301" s="14"/>
+      <c r="C301" s="14"/>
+      <c r="D301" s="14"/>
+      <c r="E301" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F301" s="14"/>
+      <c r="G301" s="14"/>
+      <c r="H301" s="14"/>
+      <c r="I301" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A302" s="19"/>
+      <c r="B302" s="14"/>
+      <c r="C302" s="14"/>
+      <c r="D302" s="14"/>
+      <c r="E302" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F302" s="14"/>
+      <c r="G302" s="14"/>
+      <c r="H302" s="14"/>
+      <c r="I302" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A303" s="19"/>
+      <c r="B303" s="14"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="14"/>
+      <c r="E303" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F303" s="14"/>
+      <c r="G303" s="14"/>
+      <c r="H303" s="14"/>
+      <c r="I303" s="14"/>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A304" s="19"/>
+      <c r="B304" s="14"/>
+      <c r="C304" s="14"/>
+      <c r="D304" s="14"/>
+      <c r="E304" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F304" s="14"/>
+      <c r="G304" s="14"/>
+      <c r="H304" s="14"/>
+      <c r="I304" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A305" s="19"/>
+      <c r="B305" s="14"/>
+      <c r="C305" s="14"/>
+      <c r="D305" s="14"/>
+      <c r="E305" s="14"/>
+      <c r="F305" s="14"/>
+      <c r="G305" s="14"/>
+      <c r="H305" s="14"/>
+      <c r="I305" s="14"/>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A306" s="19"/>
+      <c r="B306" s="14"/>
+      <c r="C306" s="14"/>
+      <c r="D306" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E306" s="14"/>
+      <c r="F306" s="14"/>
+      <c r="G306" s="14"/>
+      <c r="H306" s="14"/>
+      <c r="I306" s="14"/>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A307" s="19"/>
+      <c r="B307" s="14"/>
+      <c r="C307" s="14"/>
+      <c r="D307" s="14"/>
+      <c r="E307" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F307" s="14"/>
+      <c r="G307" s="14"/>
+      <c r="H307" s="14"/>
+      <c r="I307" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A308" s="19"/>
+      <c r="B308" s="14"/>
+      <c r="C308" s="14"/>
+      <c r="D308" s="14"/>
+      <c r="E308" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F308" s="14"/>
+      <c r="G308" s="14"/>
+      <c r="H308" s="14"/>
+      <c r="I308" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A309" s="19"/>
+      <c r="B309" s="14"/>
+      <c r="C309" s="14"/>
+      <c r="D309" s="14"/>
+      <c r="E309" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F309" s="14"/>
+      <c r="G309" s="14"/>
+      <c r="H309" s="14"/>
+      <c r="I309" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A310" s="19"/>
+      <c r="B310" s="14"/>
+      <c r="C310" s="14"/>
+      <c r="D310" s="14"/>
+      <c r="E310" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F310" s="14"/>
+      <c r="G310" s="14"/>
+      <c r="H310" s="14"/>
+      <c r="I310" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A311" s="19"/>
+      <c r="B311" s="14"/>
+      <c r="C311" s="14"/>
+      <c r="D311" s="14"/>
+      <c r="E311" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F311" s="14"/>
+      <c r="G311" s="14"/>
+      <c r="H311" s="14"/>
+      <c r="I311" s="14"/>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A312" s="19"/>
+      <c r="B312" s="14"/>
+      <c r="C312" s="14"/>
+      <c r="D312" s="14"/>
+      <c r="E312" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F312" s="14"/>
+      <c r="G312" s="14"/>
+      <c r="H312" s="14"/>
+      <c r="I312" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A313" s="19"/>
+      <c r="B313" s="14"/>
+      <c r="C313" s="14"/>
+      <c r="D313" s="14"/>
+      <c r="E313" s="14"/>
+      <c r="F313" s="14"/>
+      <c r="G313" s="14"/>
+      <c r="H313" s="14"/>
+      <c r="I313" s="14"/>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A314" s="19"/>
+      <c r="B314" s="14"/>
+      <c r="C314" s="14"/>
+      <c r="D314" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E314" s="14"/>
+      <c r="F314" s="14"/>
+      <c r="G314" s="14"/>
+      <c r="H314" s="14"/>
+      <c r="I314" s="14"/>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A315" s="19"/>
+      <c r="B315" s="14"/>
+      <c r="C315" s="14"/>
+      <c r="D315" s="14"/>
+      <c r="E315" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F315" s="14"/>
+      <c r="G315" s="14"/>
+      <c r="H315" s="14"/>
+      <c r="I315" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A316" s="19"/>
+      <c r="B316" s="14"/>
+      <c r="C316" s="14"/>
+      <c r="D316" s="14"/>
+      <c r="E316" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F316" s="14"/>
+      <c r="G316" s="14"/>
+      <c r="H316" s="14"/>
+      <c r="I316" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A317" s="19"/>
+      <c r="B317" s="14"/>
+      <c r="C317" s="14"/>
+      <c r="D317" s="14"/>
+      <c r="E317" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F317" s="14"/>
+      <c r="G317" s="14"/>
+      <c r="H317" s="14"/>
+      <c r="I317" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A318" s="19"/>
+      <c r="B318" s="14"/>
+      <c r="C318" s="14"/>
+      <c r="D318" s="14"/>
+      <c r="E318" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F318" s="14"/>
+      <c r="G318" s="14"/>
+      <c r="H318" s="14"/>
+      <c r="I318" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A319" s="19"/>
+      <c r="B319" s="14"/>
+      <c r="C319" s="14"/>
+      <c r="D319" s="14"/>
+      <c r="E319" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F319" s="14"/>
+      <c r="G319" s="14"/>
+      <c r="H319" s="14"/>
+      <c r="I319" s="14"/>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A320" s="19"/>
+      <c r="B320" s="14"/>
+      <c r="C320" s="14"/>
+      <c r="D320" s="14"/>
+      <c r="E320" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F320" s="14"/>
+      <c r="G320" s="14"/>
+      <c r="H320" s="14"/>
+      <c r="I320" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A321" s="19"/>
+      <c r="B321" s="14"/>
+      <c r="C321" s="14"/>
+      <c r="D321" s="14"/>
+      <c r="E321" s="14"/>
+      <c r="F321" s="14"/>
+      <c r="G321" s="14"/>
+      <c r="H321" s="14"/>
+      <c r="I321" s="14"/>
+    </row>
+    <row r="322" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A322" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B322" s="18"/>
+      <c r="C322" s="18"/>
+      <c r="D322" s="18"/>
+      <c r="E322" s="18"/>
+      <c r="F322" s="18"/>
+      <c r="G322" s="18"/>
+      <c r="H322" s="18"/>
+      <c r="I322" s="18"/>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A323" s="19"/>
+      <c r="B323" s="14"/>
+      <c r="C323" s="14"/>
+      <c r="D323" s="14"/>
+      <c r="E323" s="14"/>
+      <c r="F323" s="14"/>
+      <c r="G323" s="14"/>
+      <c r="H323" s="14"/>
+      <c r="I323" s="14"/>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B324" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C325" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C326" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A327" s="19"/>
+      <c r="B327" s="14"/>
+      <c r="C327" s="14"/>
+      <c r="D327" s="14"/>
+      <c r="E327" s="14"/>
+      <c r="F327" s="14"/>
+      <c r="G327" s="14"/>
+      <c r="H327" s="14"/>
+      <c r="I327" s="14"/>
+    </row>
+    <row r="328" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A328" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B328" s="18"/>
+      <c r="C328" s="18"/>
+      <c r="D328" s="18"/>
+      <c r="E328" s="18"/>
+      <c r="F328" s="18"/>
+      <c r="G328" s="18"/>
+      <c r="H328" s="18"/>
+      <c r="I328" s="18"/>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A329" s="19"/>
+      <c r="B329" s="14"/>
+      <c r="C329" s="14"/>
+      <c r="D329" s="14"/>
+      <c r="E329" s="14"/>
+      <c r="F329" s="14"/>
+      <c r="G329" s="14"/>
+      <c r="H329" s="14"/>
+      <c r="I329" s="14"/>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A330" s="19"/>
+      <c r="B330" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C330" s="14"/>
+      <c r="D330" s="14"/>
+      <c r="E330" s="14"/>
+      <c r="F330" s="14"/>
+      <c r="G330" s="14"/>
+      <c r="H330" s="14"/>
+      <c r="I330" s="14"/>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A331" s="19"/>
+      <c r="B331" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C331" s="14"/>
+      <c r="D331" s="14"/>
+      <c r="E331" s="14"/>
+      <c r="F331" s="14"/>
+      <c r="G331" s="14"/>
+      <c r="H331" s="14"/>
+      <c r="I331" s="14"/>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A332" s="20"/>
+    </row>
+    <row r="333" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A333" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B333" s="10"/>
+      <c r="C333" s="10"/>
+      <c r="D333" s="10"/>
+      <c r="E333" s="10"/>
+      <c r="F333" s="10"/>
+      <c r="G333" s="10"/>
+      <c r="H333" s="10"/>
+      <c r="I333" s="10"/>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B335" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B336" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A338" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B338" s="10"/>
+      <c r="C338" s="10"/>
+      <c r="D338" s="10"/>
+      <c r="E338" s="10"/>
+      <c r="F338" s="10"/>
+      <c r="G338" s="10"/>
+      <c r="H338" s="10"/>
+      <c r="I338" s="10"/>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A339" s="19"/>
+      <c r="B339" s="14"/>
+      <c r="C339" s="14"/>
+      <c r="D339" s="14"/>
+      <c r="E339" s="14"/>
+      <c r="F339" s="14"/>
+      <c r="G339" s="14"/>
+      <c r="H339" s="14"/>
+      <c r="I339" s="14"/>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B340" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C342" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D343" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D344" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G345" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G346" s="7"/>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D347" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D348" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D349" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G349" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D350" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A352" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B352" s="10"/>
+      <c r="C352" s="10"/>
+      <c r="D352" s="10"/>
+      <c r="E352" s="10"/>
+      <c r="F352" s="10"/>
+      <c r="G352" s="10"/>
+      <c r="H352" s="10"/>
+      <c r="I352" s="10"/>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B354" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A357" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B357" s="10"/>
+      <c r="C357" s="10"/>
+      <c r="D357" s="10"/>
+      <c r="E357" s="10"/>
+      <c r="F357" s="10"/>
+      <c r="G357" s="10"/>
+      <c r="H357" s="10"/>
+      <c r="I357" s="10"/>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B359" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A361" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B361" s="10"/>
+      <c r="C361" s="10"/>
+      <c r="D361" s="10"/>
+      <c r="E361" s="10"/>
+      <c r="F361" s="10"/>
+      <c r="G361" s="10"/>
+      <c r="H361" s="10"/>
+      <c r="I361" s="10"/>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A362" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B364" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C365" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A367" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B367" s="10"/>
+      <c r="C367" s="10"/>
+      <c r="D367" s="10"/>
+      <c r="E367" s="10"/>
+      <c r="F367" s="10"/>
+      <c r="G367" s="10"/>
+      <c r="H367" s="10"/>
+      <c r="I367" s="10"/>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A368" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A370" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B370" s="10"/>
+      <c r="C370" s="10"/>
+      <c r="D370" s="10"/>
+      <c r="E370" s="10"/>
+      <c r="F370" s="10"/>
+      <c r="G370" s="10"/>
+      <c r="H370" s="10"/>
+      <c r="I370" s="10"/>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A371" s="20"/>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A372" s="19"/>
+      <c r="B372" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C372" s="14"/>
+      <c r="D372" s="14"/>
+      <c r="E372" s="14"/>
+      <c r="F372" s="14"/>
+      <c r="G372" s="14"/>
+      <c r="H372" s="14"/>
+      <c r="I372" s="14"/>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A373" s="19"/>
+      <c r="B373" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C373" s="14"/>
+      <c r="D373" s="14"/>
+      <c r="E373" s="14"/>
+      <c r="F373" s="14"/>
+      <c r="G373" s="14"/>
+      <c r="H373" s="14"/>
+      <c r="I373" s="14"/>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A374" s="19"/>
+      <c r="B374" s="14"/>
+      <c r="C374" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D374" s="14"/>
+      <c r="E374" s="14"/>
+      <c r="F374" s="14"/>
+      <c r="G374" s="14"/>
+      <c r="H374" s="14"/>
+      <c r="I374" s="14"/>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A375" s="19"/>
+      <c r="B375" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C375" s="7"/>
+      <c r="D375" s="14"/>
+      <c r="E375" s="14"/>
+      <c r="F375" s="14"/>
+      <c r="G375" s="14"/>
+      <c r="H375" s="14"/>
+      <c r="I375" s="14"/>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A376" s="19"/>
+      <c r="B376" s="14"/>
+      <c r="C376" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D376" s="14"/>
+      <c r="E376" s="14"/>
+      <c r="F376" s="14"/>
+      <c r="G376" s="14"/>
+      <c r="H376" s="14"/>
+      <c r="I376" s="14"/>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A377" s="20"/>
+    </row>
+    <row r="378" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A378" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B378" s="10"/>
+      <c r="C378" s="10"/>
+      <c r="D378" s="10"/>
+      <c r="E378" s="10"/>
+      <c r="F378" s="10"/>
+      <c r="G378" s="10"/>
+      <c r="H378" s="10"/>
+      <c r="I378" s="10"/>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A379" s="20"/>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A380" s="20"/>
+      <c r="B380" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A381" s="20"/>
+    </row>
+    <row r="382" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A382" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B382" s="10"/>
+      <c r="C382" s="10"/>
+      <c r="D382" s="10"/>
+      <c r="E382" s="10"/>
+      <c r="F382" s="10"/>
+      <c r="G382" s="10"/>
+      <c r="H382" s="10"/>
+      <c r="I382" s="10"/>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A383" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A385" s="19"/>
+      <c r="B385" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C385" s="7"/>
+      <c r="D385" s="14"/>
+      <c r="E385" s="14"/>
+      <c r="F385" s="14"/>
+      <c r="G385" s="14"/>
+      <c r="H385" s="14"/>
+      <c r="I385" s="14"/>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A386" s="19"/>
+      <c r="B386" s="14"/>
+      <c r="C386" s="7"/>
+      <c r="D386" s="14"/>
+      <c r="E386" s="14"/>
+      <c r="F386" s="14"/>
+      <c r="G386" s="14"/>
+      <c r="H386" s="14"/>
+      <c r="I386" s="14"/>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A387" s="19"/>
+      <c r="B387" s="14"/>
+      <c r="C387" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D387" s="14"/>
+      <c r="E387" s="14"/>
+      <c r="F387" s="14"/>
+      <c r="G387" s="14"/>
+      <c r="H387" s="14"/>
+      <c r="I387" s="14"/>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A388" s="19"/>
+      <c r="B388" s="14"/>
+      <c r="C388" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D388" s="14"/>
+      <c r="E388" s="14"/>
+      <c r="F388" s="14"/>
+      <c r="G388" s="14"/>
+      <c r="H388" s="14"/>
+      <c r="I388" s="14"/>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A389" s="19"/>
+      <c r="B389" s="14"/>
+      <c r="C389" s="7"/>
+      <c r="D389" s="14"/>
+      <c r="E389" s="14"/>
+      <c r="F389" s="14"/>
+      <c r="G389" s="14"/>
+      <c r="H389" s="14"/>
+      <c r="I389" s="14"/>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A390" s="19"/>
+      <c r="B390" s="14"/>
+      <c r="C390" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D390" s="14"/>
+      <c r="E390" s="14"/>
+      <c r="F390" s="14"/>
+      <c r="G390" s="14"/>
+      <c r="H390" s="14"/>
+      <c r="I390" s="14"/>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A391" s="19"/>
+      <c r="B391" s="14"/>
+      <c r="C391" s="7"/>
+      <c r="D391" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E391" s="14"/>
+      <c r="F391" s="14"/>
+      <c r="G391" s="14"/>
+      <c r="H391" s="14"/>
+      <c r="I391" s="14"/>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A392" s="19"/>
+      <c r="B392" s="14"/>
+      <c r="C392" s="7"/>
+      <c r="D392" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E392" s="14"/>
+      <c r="F392" s="14"/>
+      <c r="G392" s="14"/>
+      <c r="H392" s="14"/>
+      <c r="I392" s="14"/>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A393" s="19"/>
+      <c r="B393" s="14"/>
+      <c r="C393" s="14"/>
+      <c r="D393" s="14"/>
+      <c r="E393" s="14"/>
+      <c r="F393" s="14"/>
+      <c r="G393" s="14"/>
+      <c r="H393" s="14"/>
+      <c r="I393" s="14"/>
+    </row>
+    <row r="394" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A394" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B394" s="18"/>
+      <c r="C394" s="18"/>
+      <c r="D394" s="18"/>
+      <c r="E394" s="18"/>
+      <c r="F394" s="18"/>
+      <c r="G394" s="18"/>
+      <c r="H394" s="18"/>
+      <c r="I394" s="18"/>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A395" s="19"/>
+      <c r="B395" s="14"/>
+      <c r="C395" s="14"/>
+      <c r="D395" s="14"/>
+      <c r="E395" s="14"/>
+      <c r="F395" s="14"/>
+      <c r="G395" s="14"/>
+      <c r="H395" s="14"/>
+      <c r="I395" s="14"/>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B396" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C397" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C398" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A399" s="19"/>
+      <c r="B399" s="14"/>
+      <c r="C399" s="14"/>
+      <c r="D399" s="14"/>
+      <c r="E399" s="14"/>
+      <c r="F399" s="14"/>
+      <c r="G399" s="14"/>
+      <c r="H399" s="14"/>
+      <c r="I399" s="14"/>
+    </row>
+    <row r="400" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A400" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B400" s="18"/>
+      <c r="C400" s="18"/>
+      <c r="D400" s="18"/>
+      <c r="E400" s="18"/>
+      <c r="F400" s="18"/>
+      <c r="G400" s="18"/>
+      <c r="H400" s="18"/>
+      <c r="I400" s="18"/>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A401" s="19"/>
+      <c r="B401" s="14"/>
+      <c r="C401" s="14"/>
+      <c r="D401" s="14"/>
+      <c r="E401" s="14"/>
+      <c r="F401" s="14"/>
+      <c r="G401" s="14"/>
+      <c r="H401" s="14"/>
+      <c r="I401" s="14"/>
+    </row>
+    <row r="402" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A402" s="13"/>
+      <c r="B402" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C402" s="14"/>
+      <c r="D402" s="14"/>
+      <c r="E402" s="14"/>
+      <c r="F402" s="14"/>
+      <c r="G402" s="14"/>
+      <c r="H402" s="14"/>
+      <c r="I402" s="14"/>
+    </row>
+    <row r="403" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A403" s="13"/>
+      <c r="B403" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C403" s="14"/>
+      <c r="D403" s="14"/>
+      <c r="E403" s="14"/>
+      <c r="F403" s="14"/>
+      <c r="G403" s="14"/>
+      <c r="H403" s="14"/>
+      <c r="I403" s="14"/>
+    </row>
+    <row r="404" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A404" s="13"/>
+      <c r="B404" s="14"/>
+      <c r="C404" s="14"/>
+      <c r="D404" s="14"/>
+      <c r="E404" s="14"/>
+      <c r="F404" s="14"/>
+      <c r="G404" s="14"/>
+      <c r="H404" s="14"/>
+      <c r="I404" s="14"/>
+    </row>
+    <row r="405" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A405" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B405" s="14"/>
+      <c r="C405" s="14"/>
+      <c r="D405" s="14"/>
+      <c r="E405" s="14"/>
+      <c r="F405" s="14"/>
+      <c r="G405" s="14"/>
+      <c r="H405" s="14"/>
+      <c r="I405" s="14"/>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A406" s="19"/>
+      <c r="B406" s="14"/>
+      <c r="C406" s="14"/>
+      <c r="D406" s="14"/>
+      <c r="E406" s="14"/>
+      <c r="F406" s="14"/>
+      <c r="G406" s="14"/>
+      <c r="H406" s="14"/>
+      <c r="I406" s="14"/>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A407" s="19"/>
+      <c r="B407" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C407" s="14"/>
+      <c r="D407" s="14"/>
+      <c r="E407" s="14"/>
+      <c r="F407" s="14"/>
+      <c r="G407" s="14"/>
+      <c r="H407" s="14"/>
+      <c r="I407" s="14"/>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A408" s="20"/>
+    </row>
+    <row r="409" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A409" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B409" s="10"/>
+      <c r="C409" s="10"/>
+      <c r="D409" s="10"/>
+      <c r="E409" s="10"/>
+      <c r="F409" s="10"/>
+      <c r="G409" s="10"/>
+      <c r="H409" s="10"/>
+      <c r="I409" s="10"/>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A410" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A411" s="20"/>
+    </row>
+    <row r="412" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A412" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B412" s="10"/>
+      <c r="C412" s="10"/>
+      <c r="D412" s="10"/>
+      <c r="E412" s="10"/>
+      <c r="F412" s="10"/>
+      <c r="G412" s="10"/>
+      <c r="H412" s="10"/>
+      <c r="I412" s="10"/>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A413" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A414" s="20"/>
+    </row>
+    <row r="415" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A415" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B415" s="10"/>
+      <c r="C415" s="10"/>
+      <c r="D415" s="10"/>
+      <c r="E415" s="10"/>
+      <c r="F415" s="10"/>
+      <c r="G415" s="10"/>
+      <c r="H415" s="10"/>
+      <c r="I415" s="10"/>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A416" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A417" s="20"/>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A418" s="20"/>
+      <c r="B418" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A419" s="20"/>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A420" s="20"/>
+      <c r="C420" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D420" s="21"/>
+      <c r="E420" s="21"/>
+      <c r="F420" s="21"/>
+      <c r="G420" s="21"/>
+      <c r="H420" s="21"/>
+      <c r="I420" s="21"/>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A421" s="20"/>
+      <c r="C421" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D421" s="21"/>
+      <c r="E421" s="21"/>
+      <c r="F421" s="21"/>
+      <c r="G421" s="21"/>
+      <c r="H421" s="21"/>
+      <c r="I421" s="21"/>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A422" s="20"/>
+      <c r="C422" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D422" s="21"/>
+      <c r="E422" s="21"/>
+      <c r="F422" s="21"/>
+      <c r="G422" s="21"/>
+      <c r="H422" s="21"/>
+      <c r="I422" s="21"/>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A423" s="20"/>
+      <c r="C423" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D423" s="21"/>
+      <c r="E423" s="21"/>
+      <c r="F423" s="21"/>
+      <c r="G423" s="21"/>
+      <c r="H423" s="21"/>
+      <c r="I423" s="21"/>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A424" s="20"/>
+      <c r="C424" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D424" s="21"/>
+      <c r="E424" s="21"/>
+      <c r="F424" s="21"/>
+      <c r="G424" s="21"/>
+      <c r="H424" s="21"/>
+      <c r="I424" s="21"/>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A425" s="20"/>
+      <c r="C425" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D425" s="21"/>
+      <c r="E425" s="21"/>
+      <c r="F425" s="21"/>
+      <c r="G425" s="21"/>
+      <c r="H425" s="21"/>
+      <c r="I425" s="21"/>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A426" s="20"/>
+    </row>
+    <row r="427" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A427" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B427" s="10"/>
+      <c r="C427" s="10"/>
+      <c r="D427" s="10"/>
+      <c r="E427" s="10"/>
+      <c r="F427" s="10"/>
+      <c r="G427" s="10"/>
+      <c r="H427" s="10"/>
+      <c r="I427" s="10"/>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A428" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A429" s="20"/>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A430" s="20"/>
+      <c r="B430" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A431" s="20"/>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A432" s="20"/>
+      <c r="C432" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D432" s="21"/>
+      <c r="E432" s="21"/>
+      <c r="F432" s="21"/>
+      <c r="G432" s="21"/>
+      <c r="H432" s="21"/>
+      <c r="I432" s="21"/>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A433" s="20"/>
+      <c r="C433" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D433" s="21"/>
+      <c r="E433" s="21"/>
+      <c r="F433" s="21"/>
+      <c r="G433" s="21"/>
+      <c r="H433" s="21"/>
+      <c r="I433" s="21"/>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A434" s="20"/>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A435" s="20"/>
+      <c r="C435" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D435" s="7"/>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A436" s="20"/>
+      <c r="C436" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D436" s="7"/>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A437" s="20"/>
+      <c r="C437" s="7"/>
+      <c r="D437" s="7"/>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A438" s="20"/>
+      <c r="B438" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C438" s="7"/>
+      <c r="D438" s="7"/>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A439" s="20"/>
+      <c r="C439" s="7"/>
+      <c r="D439" s="7"/>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A440" s="20"/>
+      <c r="B440" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C440" s="7"/>
+      <c r="D440" s="7"/>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A441" s="20"/>
+      <c r="B441" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C441" s="7"/>
+      <c r="D441" s="7"/>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A442" s="20"/>
+      <c r="B442" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C442" s="7"/>
+      <c r="D442" s="7"/>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A443" s="20"/>
+      <c r="B443" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C443" s="7"/>
+      <c r="D443" s="7"/>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A444" s="20"/>
+    </row>
+    <row r="445" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A445" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B445" s="10"/>
+      <c r="C445" s="10"/>
+      <c r="D445" s="10"/>
+      <c r="E445" s="10"/>
+      <c r="F445" s="10"/>
+      <c r="G445" s="10"/>
+      <c r="H445" s="10"/>
+      <c r="I445" s="10"/>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A447" s="20"/>
+      <c r="B447" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A448" s="20"/>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A449" s="20"/>
+      <c r="C449" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A450" s="20"/>
+      <c r="C450" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A451" s="20"/>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A452" s="20"/>
+      <c r="B452" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A453" s="20"/>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A454" s="20"/>
+      <c r="C454" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A455" s="20"/>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A456" s="20"/>
+      <c r="B456" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A457" s="20"/>
+      <c r="C457" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A458" s="20"/>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A459" s="20"/>
+      <c r="B459" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A460" s="20"/>
+      <c r="C460" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A461" s="20"/>
+    </row>
+    <row r="462" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A462" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B462" s="10"/>
+      <c r="C462" s="10"/>
+      <c r="D462" s="10"/>
+      <c r="E462" s="10"/>
+      <c r="F462" s="10"/>
+      <c r="G462" s="10"/>
+      <c r="H462" s="10"/>
+      <c r="I462" s="10"/>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A463" s="20"/>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A464" s="20"/>
+      <c r="B464" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A465" s="20"/>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A466" s="20"/>
+      <c r="C466" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A467" s="20"/>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A468" s="20"/>
+      <c r="B468" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A469" s="20"/>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A470" s="20"/>
+      <c r="C470" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A471" s="20"/>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A472" s="20"/>
+      <c r="B472" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A473" s="20"/>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A474" s="20"/>
+      <c r="C474" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A475" s="20"/>
+    </row>
+    <row r="476" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A476" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B476" s="10"/>
+      <c r="C476" s="10"/>
+      <c r="D476" s="10"/>
+      <c r="E476" s="10"/>
+      <c r="F476" s="10"/>
+      <c r="G476" s="10"/>
+      <c r="H476" s="10"/>
+      <c r="I476" s="10"/>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A477" s="20"/>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A478" s="20"/>
+      <c r="B478" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A479" s="20"/>
+    </row>
+    <row r="480" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A480" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B480" s="10"/>
+      <c r="C480" s="10"/>
+      <c r="D480" s="10"/>
+      <c r="E480" s="10"/>
+      <c r="F480" s="10"/>
+      <c r="G480" s="10"/>
+      <c r="H480" s="10"/>
+      <c r="I480" s="10"/>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A481" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A482" s="20"/>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A483" s="20"/>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A484" s="20"/>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A485" s="20"/>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A486" s="20"/>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A487" s="20"/>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A488" s="20"/>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A489" s="20"/>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A490" s="20"/>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A491" s="20"/>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A492" s="20"/>
+    </row>
+    <row r="493" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A493" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B493" s="10"/>
+      <c r="C493" s="10"/>
+      <c r="D493" s="10"/>
+      <c r="E493" s="10"/>
+      <c r="F493" s="10"/>
+      <c r="G493" s="10"/>
+      <c r="H493" s="10"/>
+      <c r="I493" s="10"/>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A494" s="20"/>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A495" s="20"/>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A496" s="20"/>
+    </row>
+    <row r="497" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A497" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B272" s="10"/>
-      <c r="C272" s="10"/>
-      <c r="D272" s="10"/>
-      <c r="E272" s="10"/>
-      <c r="F272" s="10"/>
-      <c r="G272" s="10"/>
-      <c r="H272" s="10"/>
-      <c r="I272" s="10"/>
-    </row>
-    <row r="276" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A276" s="8" t="s">
+      <c r="B497" s="10"/>
+      <c r="C497" s="10"/>
+      <c r="D497" s="10"/>
+      <c r="E497" s="10"/>
+      <c r="F497" s="10"/>
+      <c r="G497" s="10"/>
+      <c r="H497" s="10"/>
+      <c r="I497" s="10"/>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A498" s="20"/>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A499" s="20"/>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A500" s="20"/>
+    </row>
+    <row r="501" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A501" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B276" s="10"/>
-      <c r="C276" s="10"/>
-      <c r="D276" s="10"/>
-      <c r="E276" s="10"/>
-      <c r="F276" s="10"/>
-      <c r="G276" s="10"/>
-      <c r="H276" s="10"/>
-      <c r="I276" s="10"/>
-    </row>
-    <row r="280" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A280" s="8" t="s">
+      <c r="B501" s="10"/>
+      <c r="C501" s="10"/>
+      <c r="D501" s="10"/>
+      <c r="E501" s="10"/>
+      <c r="F501" s="10"/>
+      <c r="G501" s="10"/>
+      <c r="H501" s="10"/>
+      <c r="I501" s="10"/>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A502" s="20"/>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A503" s="20"/>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A504" s="20"/>
+    </row>
+    <row r="505" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A505" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B280" s="10"/>
-      <c r="C280" s="10"/>
-      <c r="D280" s="10"/>
-      <c r="E280" s="10"/>
-      <c r="F280" s="10"/>
-      <c r="G280" s="10"/>
-      <c r="H280" s="10"/>
-      <c r="I280" s="10"/>
-    </row>
-    <row r="284" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A284" s="8" t="s">
+      <c r="B505" s="10"/>
+      <c r="C505" s="10"/>
+      <c r="D505" s="10"/>
+      <c r="E505" s="10"/>
+      <c r="F505" s="10"/>
+      <c r="G505" s="10"/>
+      <c r="H505" s="10"/>
+      <c r="I505" s="10"/>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A506" s="20"/>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A507" s="20"/>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A508" s="20"/>
+    </row>
+    <row r="509" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
+      <c r="A509" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B284" s="10"/>
-      <c r="C284" s="10"/>
-      <c r="D284" s="10"/>
-      <c r="E284" s="10"/>
-      <c r="F284" s="10"/>
-      <c r="G284" s="10"/>
-      <c r="H284" s="10"/>
-      <c r="I284" s="10"/>
-    </row>
-    <row r="285" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A285" s="6"/>
-    </row>
-    <row r="286" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A286" s="6"/>
-    </row>
-    <row r="287" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A287" s="6"/>
-    </row>
-    <row r="288" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A288" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B288" s="10"/>
-      <c r="C288" s="10"/>
-      <c r="D288" s="10"/>
-      <c r="E288" s="10"/>
-      <c r="F288" s="10"/>
-      <c r="G288" s="10"/>
-      <c r="H288" s="10"/>
-      <c r="I288" s="10"/>
-    </row>
-    <row r="289" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A289" s="6"/>
-    </row>
-    <row r="290" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A290" s="6"/>
-    </row>
-    <row r="291" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A291" s="6"/>
-    </row>
-    <row r="292" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A292" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B292" s="10"/>
-      <c r="C292" s="10"/>
-      <c r="D292" s="10"/>
-      <c r="E292" s="10"/>
-      <c r="F292" s="10"/>
-      <c r="G292" s="10"/>
-      <c r="H292" s="10"/>
-      <c r="I292" s="10"/>
-    </row>
-    <row r="293" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A293" s="6"/>
-    </row>
-    <row r="294" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A294" s="6"/>
-    </row>
-    <row r="295" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A295" s="6"/>
-    </row>
-    <row r="296" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A296" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B296" s="10"/>
-      <c r="C296" s="10"/>
-      <c r="D296" s="10"/>
-      <c r="E296" s="10"/>
-      <c r="F296" s="10"/>
-      <c r="G296" s="10"/>
-      <c r="H296" s="10"/>
-      <c r="I296" s="10"/>
-    </row>
-    <row r="297" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A297" s="6"/>
-    </row>
-    <row r="298" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A298" s="6"/>
-    </row>
-    <row r="299" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A299" s="6"/>
-    </row>
-    <row r="300" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A300" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B300" s="10"/>
-      <c r="C300" s="10"/>
-      <c r="D300" s="10"/>
-      <c r="E300" s="10"/>
-      <c r="F300" s="10"/>
-      <c r="G300" s="10"/>
-      <c r="H300" s="10"/>
-      <c r="I300" s="10"/>
-    </row>
-    <row r="301" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A301" s="6"/>
-    </row>
-    <row r="302" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A302" s="6"/>
-    </row>
-    <row r="303" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A303" s="6"/>
-    </row>
-    <row r="304" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A304" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B304" s="10"/>
-      <c r="C304" s="10"/>
-      <c r="D304" s="10"/>
-      <c r="E304" s="10"/>
-      <c r="F304" s="10"/>
-      <c r="G304" s="10"/>
-      <c r="H304" s="10"/>
-      <c r="I304" s="10"/>
-    </row>
-    <row r="305" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A305" s="6"/>
-    </row>
-    <row r="306" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A306" s="6"/>
-    </row>
-    <row r="307" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A307" s="6"/>
-    </row>
-    <row r="308" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A308" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B308" s="10"/>
-      <c r="C308" s="10"/>
-      <c r="D308" s="10"/>
-      <c r="E308" s="10"/>
-      <c r="F308" s="10"/>
-      <c r="G308" s="10"/>
-      <c r="H308" s="10"/>
-      <c r="I308" s="10"/>
-    </row>
-    <row r="309" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A309" s="6"/>
-    </row>
-    <row r="310" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A310" s="6"/>
-    </row>
-    <row r="311" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A311" s="6"/>
-    </row>
-    <row r="312" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A312" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B312" s="10"/>
-      <c r="C312" s="10"/>
-      <c r="D312" s="10"/>
-      <c r="E312" s="10"/>
-      <c r="F312" s="10"/>
-      <c r="G312" s="10"/>
-      <c r="H312" s="10"/>
-      <c r="I312" s="10"/>
-    </row>
-    <row r="313" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A313" s="6"/>
-    </row>
-    <row r="314" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A314" s="6"/>
-    </row>
-    <row r="315" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A315" s="6"/>
-    </row>
-    <row r="316" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A316" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B316" s="10"/>
-      <c r="C316" s="10"/>
-      <c r="D316" s="10"/>
-      <c r="E316" s="10"/>
-      <c r="F316" s="10"/>
-      <c r="G316" s="10"/>
-      <c r="H316" s="10"/>
-      <c r="I316" s="10"/>
-    </row>
-    <row r="317" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A317" s="6"/>
-    </row>
-    <row r="318" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A318" s="6"/>
-    </row>
-    <row r="319" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A319" s="6"/>
-    </row>
-    <row r="320" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A320" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B320" s="10"/>
-      <c r="C320" s="10"/>
-      <c r="D320" s="10"/>
-      <c r="E320" s="10"/>
-      <c r="F320" s="10"/>
-      <c r="G320" s="10"/>
-      <c r="H320" s="10"/>
-      <c r="I320" s="10"/>
-    </row>
-    <row r="321" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A321" s="6"/>
-    </row>
-    <row r="322" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A322" s="6"/>
-    </row>
-    <row r="323" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A323" s="6"/>
-    </row>
-    <row r="324" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A324" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B324" s="10"/>
-      <c r="C324" s="10"/>
-      <c r="D324" s="10"/>
-      <c r="E324" s="10"/>
-      <c r="F324" s="10"/>
-      <c r="G324" s="10"/>
-      <c r="H324" s="10"/>
-      <c r="I324" s="10"/>
-    </row>
-    <row r="325" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A325" s="6"/>
-    </row>
-    <row r="326" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A326" s="6"/>
-    </row>
-    <row r="327" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A327" s="6"/>
-    </row>
-    <row r="328" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A328" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B328" s="10"/>
-      <c r="C328" s="10"/>
-      <c r="D328" s="10"/>
-      <c r="E328" s="10"/>
-      <c r="F328" s="10"/>
-      <c r="G328" s="10"/>
-      <c r="H328" s="10"/>
-      <c r="I328" s="10"/>
-    </row>
-    <row r="329" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A329" s="6"/>
-    </row>
-    <row r="330" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A330" s="6"/>
-    </row>
-    <row r="331" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A331" s="6"/>
-    </row>
-    <row r="332" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A332" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B332" s="10"/>
-      <c r="C332" s="10"/>
-      <c r="D332" s="10"/>
-      <c r="E332" s="10"/>
-      <c r="F332" s="10"/>
-      <c r="G332" s="10"/>
-      <c r="H332" s="10"/>
-      <c r="I332" s="10"/>
-    </row>
-    <row r="333" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A333" s="6"/>
-    </row>
-    <row r="334" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A334" s="6"/>
-    </row>
-    <row r="335" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A335" s="6"/>
-    </row>
-    <row r="336" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A336" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B336" s="10"/>
-      <c r="C336" s="10"/>
-      <c r="D336" s="10"/>
-      <c r="E336" s="10"/>
-      <c r="F336" s="10"/>
-      <c r="G336" s="10"/>
-      <c r="H336" s="10"/>
-      <c r="I336" s="10"/>
-    </row>
-    <row r="337" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A337" s="6"/>
-    </row>
-    <row r="338" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A338" s="6"/>
-    </row>
-    <row r="339" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A339" s="6"/>
-    </row>
-    <row r="340" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A340" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B340" s="10"/>
-      <c r="C340" s="10"/>
-      <c r="D340" s="10"/>
-      <c r="E340" s="10"/>
-      <c r="F340" s="10"/>
-      <c r="G340" s="10"/>
-      <c r="H340" s="10"/>
-      <c r="I340" s="10"/>
-    </row>
-    <row r="341" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A341" s="6"/>
-    </row>
-    <row r="342" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A342" s="6"/>
-    </row>
-    <row r="343" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A343" s="6"/>
-    </row>
-    <row r="344" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A344" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B344" s="10"/>
-      <c r="C344" s="10"/>
-      <c r="D344" s="10"/>
-      <c r="E344" s="10"/>
-      <c r="F344" s="10"/>
-      <c r="G344" s="10"/>
-      <c r="H344" s="10"/>
-      <c r="I344" s="10"/>
-    </row>
-    <row r="345" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A345" s="6"/>
-    </row>
-    <row r="346" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A346" s="6"/>
-    </row>
-    <row r="347" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A347" s="6"/>
-    </row>
-    <row r="348" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A348" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B348" s="10"/>
-      <c r="C348" s="10"/>
-      <c r="D348" s="10"/>
-      <c r="E348" s="10"/>
-      <c r="F348" s="10"/>
-      <c r="G348" s="10"/>
-      <c r="H348" s="10"/>
-      <c r="I348" s="10"/>
-    </row>
-    <row r="349" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A349" s="6"/>
-    </row>
-    <row r="350" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A350" s="6"/>
-    </row>
-    <row r="351" spans="1:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="A351" s="6"/>
+      <c r="B509" s="10"/>
+      <c r="C509" s="10"/>
+      <c r="D509" s="10"/>
+      <c r="E509" s="10"/>
+      <c r="F509" s="10"/>
+      <c r="G509" s="10"/>
+      <c r="H509" s="10"/>
+      <c r="I509" s="10"/>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A510" s="20"/>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A511" s="20"/>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A512" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
